--- a/tools/courseReg.xlsx
+++ b/tools/courseReg.xlsx
@@ -14,15 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>AccountID</t>
-  </si>
-  <si>
-    <t>12345678</t>
-  </si>
-  <si>
-    <t>12345679</t>
   </si>
 </sst>
 </file>
@@ -30,7 +24,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,6 +38,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -53,7 +53,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -76,22 +76,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -415,14 +422,14 @@
         <v>30000000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
